--- a/Unity/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/Unity/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -128,7 +128,7 @@
     <t>parser_mode=column或stream，默认为column</t>
   </si>
   <si>
-    <t>GameMain.TbSounds_Config</t>
+    <t>Custom.TbSounds_Config</t>
   </si>
   <si>
     <t>Sounds_Config</t>
@@ -137,7 +137,7 @@
     <t>S_声音相关/Sounds_Config.xlsx</t>
   </si>
   <si>
-    <t>GameMain.TbLanguage_Config</t>
+    <t>Custom.TbLanguage_Config</t>
   </si>
   <si>
     <t>Language_Config</t>
@@ -146,7 +146,7 @@
     <t>W_文字相关/Language_Config.xlsx</t>
   </si>
   <si>
-    <t>GameMain.TbUIData_GameMode</t>
+    <t>Custom.TbUIData_GameMode</t>
   </si>
   <si>
     <t>UIData_GameMode</t>
@@ -155,7 +155,7 @@
     <t>T_例子业务逻辑/UIData_GameMode.xlsx</t>
   </si>
   <si>
-    <t>GameMain.TbUIData_Race</t>
+    <t>Custom.TbUIData_Race</t>
   </si>
   <si>
     <t>UIData_Race</t>
@@ -164,7 +164,7 @@
     <t>T_例子业务逻辑/UIData_Race.xlsx</t>
   </si>
   <si>
-    <t>GameMain.TbUIData_Character</t>
+    <t>Custom.TbUIData_Character</t>
   </si>
   <si>
     <t>UIData_Character</t>
@@ -173,7 +173,7 @@
     <t>T_例子业务逻辑/UIData_Character.xlsx</t>
   </si>
   <si>
-    <t>GameMain.TbPlayerData_Character</t>
+    <t>Custom.TbPlayerData_Character</t>
   </si>
   <si>
     <t>PlayerData_Character</t>
@@ -182,7 +182,7 @@
     <t>T_例子业务逻辑/PlayerData_Character.xlsx</t>
   </si>
   <si>
-    <t>GameMain.TbEntityData</t>
+    <t>Custom.TbEntityData</t>
   </si>
   <si>
     <t>EntityData</t>
@@ -191,7 +191,7 @@
     <t>T_例子业务逻辑/EntityData.xlsx</t>
   </si>
   <si>
-    <t>GameMain.TbLevelData</t>
+    <t>Custom.TbLevelData</t>
   </si>
   <si>
     <t>LevelData</t>
@@ -210,17 +210,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -690,133 +683,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,7 +820,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1155,12 +1148,12 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="16.2166666666667" customWidth="1"/>
     <col min="6" max="6" width="27.1083333333333" customWidth="1"/>
